--- a/financials.xlsx
+++ b/financials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\primg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4efe377e75486f3/Documents/GitHub/pricechart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F6CB3F-9330-4EC6-BCB3-1ADE55E58FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{80F6CB3F-9330-4EC6-BCB3-1ADE55E58FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35812096-E456-421C-BE87-7E17532AF62B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27DCC865-CCC6-47F2-95EB-D3204005DE1F}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,10 +623,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -635,21 +635,21 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>49.25</v>
+        <v>44.88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>44.88</v>
+        <v>46.85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -669,10 +669,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -681,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>49.5</v>
+        <v>46.85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -692,56 +692,56 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>84.58</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -750,21 +750,21 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -773,33 +773,33 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>46.85</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>46.85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="G14">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -922,22 +922,22 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>67</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="G18">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1014,22 +1014,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="G20">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1144,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1190,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="G26">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1236,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="G28">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1244,22 +1244,22 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G29">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,22 +1267,22 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>78</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,22 +1313,22 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="G33">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1359,22 +1359,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>80.75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1428,22 +1428,22 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>81.099999999999994</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1451,45 +1451,45 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>88.41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>96.2</v>
+        <v>84.58</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1497,22 +1497,22 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G40">
-        <v>50.8</v>
+        <v>88.41</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,25 +1520,30 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G41">
-        <v>60.8</v>
+        <v>96.2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G41" xr:uid="{15143D1C-A984-464A-94D7-C17E0782C82E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
+      <sortCondition ref="G1:G41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/financials.xlsx
+++ b/financials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4efe377e75486f3/Documents/GitHub/pricechart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{80F6CB3F-9330-4EC6-BCB3-1ADE55E58FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35812096-E456-421C-BE87-7E17532AF62B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{80F6CB3F-9330-4EC6-BCB3-1ADE55E58FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A790609-A60A-4DE0-95F0-67B61828165C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27DCC865-CCC6-47F2-95EB-D3204005DE1F}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="49">
   <si>
     <t>Project Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Sweetwater 1</t>
   </si>
   <si>
-    <t>Sweetwater 2</t>
-  </si>
-  <si>
     <t>Metlen Energy and Metals</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>COMED</t>
+  </si>
+  <si>
+    <t>Term (years)</t>
+  </si>
+  <si>
+    <t>remove duplicate</t>
   </si>
 </sst>
 </file>
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15143D1C-A984-464A-94D7-C17E0782C82E}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G5"/>
+      <selection sqref="A1:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +598,7 @@
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -617,16 +620,19 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -635,21 +641,24 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>44.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49.25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -661,18 +670,21 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>46.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44.88</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -681,67 +693,76 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>46.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49.5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>84.58</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>49.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -750,21 +771,24 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47.6</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -773,22 +797,28 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>50.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46.85</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -799,291 +829,330 @@
         <v>11</v>
       </c>
       <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>62</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>77</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>79</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>82</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>83</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1098,18 +1167,21 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1121,15 +1193,18 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1144,18 +1219,21 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1167,15 +1245,18 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -1190,18 +1271,21 @@
         <v>11</v>
       </c>
       <c r="G26">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1213,15 +1297,18 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1236,314 +1323,325 @@
         <v>11</v>
       </c>
       <c r="G28">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>82</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>83</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>80.75</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>82.75</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D35" t="s">
         <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G35">
-        <v>82.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88.41</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G38">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96.2</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>84.58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50.8</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>88.41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41">
-        <v>96.2</v>
+        <v>60.8</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G41" xr:uid="{15143D1C-A984-464A-94D7-C17E0782C82E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
-      <sortCondition ref="G1:G41"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
